--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Amh-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Amh-Acvr1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.204164</v>
+        <v>0.07899133333333333</v>
       </c>
       <c r="H2">
-        <v>0.612492</v>
+        <v>0.236974</v>
       </c>
       <c r="I2">
-        <v>0.351141252641835</v>
+        <v>0.08952820636815619</v>
       </c>
       <c r="J2">
-        <v>0.3785771371035782</v>
+        <v>0.09988914039546951</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N2">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O2">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P2">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q2">
-        <v>1.675398571124</v>
+        <v>0.5533281813368889</v>
       </c>
       <c r="R2">
-        <v>15.078587140116</v>
+        <v>4.979953632032</v>
       </c>
       <c r="S2">
-        <v>0.06063767701186033</v>
+        <v>0.01199941118437617</v>
       </c>
       <c r="T2">
-        <v>0.07031141698287197</v>
+        <v>0.01463147225984831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.204164</v>
+        <v>0.07899133333333333</v>
       </c>
       <c r="H3">
-        <v>0.612492</v>
+        <v>0.236974</v>
       </c>
       <c r="I3">
-        <v>0.351141252641835</v>
+        <v>0.08952820636815619</v>
       </c>
       <c r="J3">
-        <v>0.3785771371035782</v>
+        <v>0.09988914039546951</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>59.522376</v>
       </c>
       <c r="O3">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P3">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q3">
-        <v>4.050775457888</v>
+        <v>1.567250614469333</v>
       </c>
       <c r="R3">
-        <v>36.456979120992</v>
+        <v>14.105255530224</v>
       </c>
       <c r="S3">
-        <v>0.1466096593947755</v>
+        <v>0.03398721624217043</v>
       </c>
       <c r="T3">
-        <v>0.1699988093773225</v>
+        <v>0.04144228445844658</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.204164</v>
+        <v>0.07899133333333333</v>
       </c>
       <c r="H4">
-        <v>0.612492</v>
+        <v>0.236974</v>
       </c>
       <c r="I4">
-        <v>0.351141252641835</v>
+        <v>0.08952820636815619</v>
       </c>
       <c r="J4">
-        <v>0.3785771371035782</v>
+        <v>0.09988914039546951</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N4">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O4">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P4">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q4">
-        <v>0.9070002713666666</v>
+        <v>0.4971427518155556</v>
       </c>
       <c r="R4">
-        <v>8.1630024423</v>
+        <v>4.47428476634</v>
       </c>
       <c r="S4">
-        <v>0.0328270481142311</v>
+        <v>0.01078098043362648</v>
       </c>
       <c r="T4">
-        <v>0.03806406152110761</v>
+        <v>0.01314577971575477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.204164</v>
+        <v>0.07899133333333333</v>
       </c>
       <c r="H5">
-        <v>0.612492</v>
+        <v>0.236974</v>
       </c>
       <c r="I5">
-        <v>0.351141252641835</v>
+        <v>0.08952820636815619</v>
       </c>
       <c r="J5">
-        <v>0.3785771371035782</v>
+        <v>0.09988914039546951</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N5">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O5">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P5">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q5">
-        <v>2.043242381154001</v>
+        <v>1.052504143742</v>
       </c>
       <c r="R5">
-        <v>12.259454286924</v>
+        <v>6.315024862452</v>
       </c>
       <c r="S5">
-        <v>0.07395104287467531</v>
+        <v>0.02282448358857526</v>
       </c>
       <c r="T5">
-        <v>0.05716580700436497</v>
+        <v>0.01855401032268588</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.204164</v>
+        <v>0.07899133333333333</v>
       </c>
       <c r="H6">
-        <v>0.612492</v>
+        <v>0.236974</v>
       </c>
       <c r="I6">
-        <v>0.351141252641835</v>
+        <v>0.08952820636815619</v>
       </c>
       <c r="J6">
-        <v>0.3785771371035782</v>
+        <v>0.09988914039546951</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N6">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O6">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P6">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q6">
-        <v>1.025497737513333</v>
+        <v>0.4581835152935556</v>
       </c>
       <c r="R6">
-        <v>9.229479637620001</v>
+        <v>4.123651637641999</v>
       </c>
       <c r="S6">
-        <v>0.03711582524629278</v>
+        <v>0.009936114919407858</v>
       </c>
       <c r="T6">
-        <v>0.04303704221791125</v>
+        <v>0.01211559363873396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2050716666666667</v>
+        <v>0.296947</v>
       </c>
       <c r="H7">
-        <v>0.615215</v>
+        <v>0.890841</v>
       </c>
       <c r="I7">
-        <v>0.3527023467148085</v>
+        <v>0.336557583908845</v>
       </c>
       <c r="J7">
-        <v>0.3802602048731703</v>
+        <v>0.3755067717093034</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N7">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O7">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P7">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q7">
-        <v>1.682847011771667</v>
+        <v>2.080090771098667</v>
       </c>
       <c r="R7">
-        <v>15.145623105945</v>
+        <v>18.720816939888</v>
       </c>
       <c r="S7">
-        <v>0.06090725831986646</v>
+        <v>0.04510860878788749</v>
       </c>
       <c r="T7">
-        <v>0.07062400553659079</v>
+        <v>0.05500314540597502</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2050716666666667</v>
+        <v>0.296947</v>
       </c>
       <c r="H8">
-        <v>0.615215</v>
+        <v>0.890841</v>
       </c>
       <c r="I8">
-        <v>0.3527023467148085</v>
+        <v>0.336557583908845</v>
       </c>
       <c r="J8">
-        <v>0.3802602048731703</v>
+        <v>0.3755067717093034</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>59.522376</v>
       </c>
       <c r="O8">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P8">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q8">
-        <v>4.068784283426666</v>
+        <v>5.891663662024</v>
       </c>
       <c r="R8">
-        <v>36.61905855083999</v>
+        <v>53.024972958216</v>
       </c>
       <c r="S8">
-        <v>0.1472614525651874</v>
+        <v>0.1277659393198889</v>
       </c>
       <c r="T8">
-        <v>0.1707545853840857</v>
+        <v>0.1557912941050369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2050716666666667</v>
+        <v>0.296947</v>
       </c>
       <c r="H9">
-        <v>0.615215</v>
+        <v>0.890841</v>
       </c>
       <c r="I9">
-        <v>0.3527023467148085</v>
+        <v>0.336557583908845</v>
       </c>
       <c r="J9">
-        <v>0.3802602048731703</v>
+        <v>0.3755067717093034</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N9">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O9">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P9">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q9">
-        <v>0.911032588097222</v>
+        <v>1.868876527256667</v>
       </c>
       <c r="R9">
-        <v>8.199293292874998</v>
+        <v>16.81988874531</v>
       </c>
       <c r="S9">
-        <v>0.03297298969716615</v>
+        <v>0.04052824103265441</v>
       </c>
       <c r="T9">
-        <v>0.03823328567345894</v>
+        <v>0.04941807771216546</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2050716666666667</v>
+        <v>0.296947</v>
       </c>
       <c r="H10">
-        <v>0.615215</v>
+        <v>0.890841</v>
       </c>
       <c r="I10">
-        <v>0.3527023467148085</v>
+        <v>0.336557583908845</v>
       </c>
       <c r="J10">
-        <v>0.3802602048731703</v>
+        <v>0.3755067717093034</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N10">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O10">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P10">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q10">
-        <v>2.0523261716425</v>
+        <v>3.956610615153</v>
       </c>
       <c r="R10">
-        <v>12.313957029855</v>
+        <v>23.739663690918</v>
       </c>
       <c r="S10">
-        <v>0.07427981237655898</v>
+        <v>0.08580260190793072</v>
       </c>
       <c r="T10">
-        <v>0.05741995316867875</v>
+        <v>0.06974888852731446</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.2050716666666667</v>
+        <v>0.296947</v>
       </c>
       <c r="H11">
-        <v>0.615215</v>
+        <v>0.890841</v>
       </c>
       <c r="I11">
-        <v>0.3527023467148085</v>
+        <v>0.336557583908845</v>
       </c>
       <c r="J11">
-        <v>0.3802602048731703</v>
+        <v>0.3755067717093034</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N11">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O11">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P11">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q11">
-        <v>1.030056867002778</v>
+        <v>1.722419594333667</v>
       </c>
       <c r="R11">
-        <v>9.270511803025</v>
+        <v>15.501776349003</v>
       </c>
       <c r="S11">
-        <v>0.03728083375602949</v>
+        <v>0.0373521928604835</v>
       </c>
       <c r="T11">
-        <v>0.04322837511035615</v>
+        <v>0.04554536595881149</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.1264105</v>
+        <v>0.27455</v>
       </c>
       <c r="H12">
-        <v>0.252821</v>
+        <v>0.5491</v>
       </c>
       <c r="I12">
-        <v>0.2174131645005029</v>
+        <v>0.3111729859610415</v>
       </c>
       <c r="J12">
-        <v>0.1562669396166215</v>
+        <v>0.2314563074056745</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N12">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O12">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P12">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q12">
-        <v>1.0373423868805</v>
+        <v>1.923201518133333</v>
       </c>
       <c r="R12">
-        <v>6.224054321283001</v>
+        <v>11.5392091088</v>
       </c>
       <c r="S12">
-        <v>0.03754451847489161</v>
+        <v>0.04170632652532105</v>
       </c>
       <c r="T12">
-        <v>0.02902275091434121</v>
+        <v>0.03390305019910499</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.1264105</v>
+        <v>0.27455</v>
       </c>
       <c r="H13">
-        <v>0.252821</v>
+        <v>0.5491</v>
       </c>
       <c r="I13">
-        <v>0.2174131645005029</v>
+        <v>0.3111729859610415</v>
       </c>
       <c r="J13">
-        <v>0.1562669396166215</v>
+        <v>0.2314563074056745</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>59.522376</v>
       </c>
       <c r="O13">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P13">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q13">
-        <v>2.508084437116</v>
+        <v>5.447289443600001</v>
       </c>
       <c r="R13">
-        <v>15.048506622696</v>
+        <v>32.6837366616</v>
       </c>
       <c r="S13">
-        <v>0.09077506489353297</v>
+        <v>0.1181292912212466</v>
       </c>
       <c r="T13">
-        <v>0.07017115159966832</v>
+        <v>0.09602723672695325</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.1264105</v>
+        <v>0.27455</v>
       </c>
       <c r="H14">
-        <v>0.252821</v>
+        <v>0.5491</v>
       </c>
       <c r="I14">
-        <v>0.2174131645005029</v>
+        <v>0.3111729859610415</v>
       </c>
       <c r="J14">
-        <v>0.1562669396166215</v>
+        <v>0.2314563074056745</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N14">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O14">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P14">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q14">
-        <v>0.5615796996708333</v>
+        <v>1.727917946833333</v>
       </c>
       <c r="R14">
-        <v>3.369478198024999</v>
+        <v>10.367507681</v>
       </c>
       <c r="S14">
-        <v>0.02032524620228841</v>
+        <v>0.03747142949925498</v>
       </c>
       <c r="T14">
-        <v>0.01571186904943729</v>
+        <v>0.03046050470482393</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.1264105</v>
+        <v>0.27455</v>
       </c>
       <c r="H15">
-        <v>0.252821</v>
+        <v>0.5491</v>
       </c>
       <c r="I15">
-        <v>0.2174131645005029</v>
+        <v>0.3111729859610415</v>
       </c>
       <c r="J15">
-        <v>0.1562669396166215</v>
+        <v>0.2314563074056745</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N15">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O15">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P15">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q15">
-        <v>1.26509713280925</v>
+        <v>3.65818629045</v>
       </c>
       <c r="R15">
-        <v>5.060388531237001</v>
+        <v>14.6327451618</v>
       </c>
       <c r="S15">
-        <v>0.04578764280337935</v>
+        <v>0.07933100638774725</v>
       </c>
       <c r="T15">
-        <v>0.0235965800249645</v>
+        <v>0.04299208802732291</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.1264105</v>
+        <v>0.27455</v>
       </c>
       <c r="H16">
-        <v>0.252821</v>
+        <v>0.5491</v>
       </c>
       <c r="I16">
-        <v>0.2174131645005029</v>
+        <v>0.3111729859610415</v>
       </c>
       <c r="J16">
-        <v>0.1562669396166215</v>
+        <v>0.2314563074056745</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N16">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O16">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P16">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q16">
-        <v>0.6349487752391667</v>
+        <v>1.592507415883333</v>
       </c>
       <c r="R16">
-        <v>3.809692651435</v>
+        <v>9.555044495300001</v>
       </c>
       <c r="S16">
-        <v>0.0229806921264106</v>
+        <v>0.03453493232747172</v>
       </c>
       <c r="T16">
-        <v>0.01776458802821023</v>
+        <v>0.0280734277474694</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04578366666666667</v>
+        <v>0.2318183333333333</v>
       </c>
       <c r="H17">
-        <v>0.137351</v>
+        <v>0.695455</v>
       </c>
       <c r="I17">
-        <v>0.07874323614285358</v>
+        <v>0.2627412237619573</v>
       </c>
       <c r="J17">
-        <v>0.08489571840662991</v>
+        <v>0.2931477804895526</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N17">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O17">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P17">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q17">
-        <v>0.3757072241636667</v>
+        <v>1.623869497715556</v>
       </c>
       <c r="R17">
-        <v>3.381365017473</v>
+        <v>14.61482547944</v>
       </c>
       <c r="S17">
-        <v>0.01359796630038601</v>
+        <v>0.03521504682045426</v>
       </c>
       <c r="T17">
-        <v>0.01576729726104904</v>
+        <v>0.04293943867459216</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.04578366666666667</v>
+        <v>0.2318183333333333</v>
       </c>
       <c r="H18">
-        <v>0.137351</v>
+        <v>0.695455</v>
       </c>
       <c r="I18">
-        <v>0.07874323614285358</v>
+        <v>0.2627412237619573</v>
       </c>
       <c r="J18">
-        <v>0.08489571840662991</v>
+        <v>0.2931477804895526</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>59.522376</v>
       </c>
       <c r="O18">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P18">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q18">
-        <v>0.9083842073306667</v>
+        <v>4.599459333453334</v>
       </c>
       <c r="R18">
-        <v>8.175457865976</v>
+        <v>41.39513400108</v>
       </c>
       <c r="S18">
-        <v>0.03287713688918681</v>
+        <v>0.09974334514207736</v>
       </c>
       <c r="T18">
-        <v>0.03812214113292029</v>
+        <v>0.1216219667054148</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.04578366666666667</v>
+        <v>0.2318183333333333</v>
       </c>
       <c r="H19">
-        <v>0.137351</v>
+        <v>0.695455</v>
       </c>
       <c r="I19">
-        <v>0.07874323614285358</v>
+        <v>0.2627412237619573</v>
       </c>
       <c r="J19">
-        <v>0.08489571840662991</v>
+        <v>0.2931477804895526</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N19">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O19">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P19">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q19">
-        <v>0.2033943206972222</v>
+        <v>1.458980362672222</v>
       </c>
       <c r="R19">
-        <v>1.830548886275</v>
+        <v>13.13082326405</v>
       </c>
       <c r="S19">
-        <v>0.007361447799379838</v>
+        <v>0.03163928003691419</v>
       </c>
       <c r="T19">
-        <v>0.008535845225710133</v>
+        <v>0.03857933035784616</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.04578366666666667</v>
+        <v>0.2318183333333333</v>
       </c>
       <c r="H20">
-        <v>0.137351</v>
+        <v>0.695455</v>
       </c>
       <c r="I20">
-        <v>0.07874323614285358</v>
+        <v>0.2627412237619573</v>
       </c>
       <c r="J20">
-        <v>0.08489571840662991</v>
+        <v>0.2931477804895526</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N20">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O20">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P20">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q20">
-        <v>0.4581959997745001</v>
+        <v>3.088816787015</v>
       </c>
       <c r="R20">
-        <v>2.749175998647</v>
+        <v>18.53290072209</v>
       </c>
       <c r="S20">
-        <v>0.0165834814003767</v>
+        <v>0.06698372494067961</v>
       </c>
       <c r="T20">
-        <v>0.01281940132745657</v>
+        <v>0.054451033653327</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.04578366666666667</v>
+        <v>0.2318183333333333</v>
       </c>
       <c r="H21">
-        <v>0.137351</v>
+        <v>0.695455</v>
       </c>
       <c r="I21">
-        <v>0.07874323614285358</v>
+        <v>0.2627412237619573</v>
       </c>
       <c r="J21">
-        <v>0.08489571840662991</v>
+        <v>0.2931477804895526</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N21">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O21">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P21">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q21">
-        <v>0.2299673134427778</v>
+        <v>1.344645474307222</v>
       </c>
       <c r="R21">
-        <v>2.069705820985</v>
+        <v>12.101809268765</v>
       </c>
       <c r="S21">
-        <v>0.008323203753524227</v>
+        <v>0.0291598268218319</v>
       </c>
       <c r="T21">
-        <v>0.009651033459493882</v>
+        <v>0.03555601109837249</v>
       </c>
     </row>
   </sheetData>
